--- a/01读书笔记/《中毒的父母》或者中毒的爱/观念、情感、行为关系表-2021-10-31.xlsx
+++ b/01读书笔记/《中毒的父母》或者中毒的爱/观念、情感、行为关系表-2021-10-31.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="7575" activeTab="1"/>
+    <workbookView windowWidth="19560" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="观念表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
+  <si>
+    <t>添加行说明：可以添加其他行</t>
+  </si>
   <si>
     <t>让父母高兴是我的责任。</t>
   </si>
@@ -163,6 +166,9 @@
   </si>
   <si>
     <t>当父母对我说,我毁了他们的生活时,我感到伤心。</t>
+  </si>
+  <si>
+    <t>因为我不应该做任何会伤及父母感情的事,说任何伤及他们感情的话。</t>
   </si>
   <si>
     <t>当我做了自己想干的事,却伤了父母的心时,我感到伤心。</t>
@@ -257,9 +263,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -294,14 +300,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,6 +321,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -323,6 +337,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -331,6 +360,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -339,6 +421,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -346,89 +435,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -439,187 +445,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,11 +648,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,6 +711,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -680,200 +736,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -1241,32 +1247,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="82.5" customWidth="true"/>
     <col min="3" max="3" width="35.5666666666667" customWidth="true"/>
+    <col min="4" max="4" width="35.225" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" customFormat="true" spans="1:4">
+      <c r="A1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1274,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1282,7 +1288,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1290,36 +1296,36 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="14" customHeight="true" spans="1:2">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" ht="14" customHeight="true" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1327,50 +1333,50 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1378,12 +1384,20 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1396,255 +1410,289 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="71.375" customWidth="true"/>
     <col min="3" max="3" width="53.6333333333333" customWidth="true"/>
+    <col min="4" max="4" width="31.25" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="true" spans="1:3">
+    <row r="1" customFormat="true" spans="1:4">
       <c r="A1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="30" spans="1:3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1657,105 +1705,109 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="75.6833333333333" customWidth="true"/>
+    <col min="2" max="2" width="29.6583333333333" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/01读书笔记/《中毒的父母》或者中毒的爱/观念、情感、行为关系表-2021-10-31.xlsx
+++ b/01读书笔记/《中毒的父母》或者中毒的爱/观念、情感、行为关系表-2021-10-31.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="7875" activeTab="1"/>
+    <workbookView windowWidth="19650" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="观念表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
   <si>
     <t>添加行说明：可以添加其他行</t>
   </si>
@@ -78,6 +78,9 @@
     <t>14/16</t>
   </si>
   <si>
+    <t>做家务是我的责任，做父母的活是我的责任。</t>
+  </si>
+  <si>
     <t>和观念的关系</t>
   </si>
   <si>
@@ -181,6 +184,9 @@
   </si>
   <si>
     <t>当父母试图控制我时,我感到愤怒。</t>
+  </si>
+  <si>
+    <t>因为如果父母乐于改正,我的自我感觉会好一些。</t>
   </si>
   <si>
     <t>当父母告诉我应当怎样生活时,我感到愤怒。</t>
@@ -1247,10 +1253,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1400,6 +1406,11 @@
         <v>19</v>
       </c>
     </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1412,8 +1423,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1426,7 +1437,7 @@
     <row r="1" customFormat="true" spans="1:4">
       <c r="A1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1434,116 +1445,116 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="30" spans="1:3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -1554,7 +1565,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -1565,34 +1576,34 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -1603,7 +1614,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -1614,85 +1625,91 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" ht="14" customHeight="true" spans="1:3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
         <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1707,8 +1724,8 @@
   <sheetPr/>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1719,7 +1736,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1727,87 +1744,87 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/01读书笔记/《中毒的父母》或者中毒的爱/观念、情感、行为关系表-2021-10-31.xlsx
+++ b/01读书笔记/《中毒的父母》或者中毒的爱/观念、情感、行为关系表-2021-10-31.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19650" windowHeight="7875" activeTab="1"/>
+    <workbookView windowWidth="19650" windowHeight="7920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="观念表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
   <si>
     <t>添加行说明：可以添加其他行</t>
   </si>
@@ -186,15 +186,16 @@
     <t>当父母试图控制我时,我感到愤怒。</t>
   </si>
   <si>
-    <t>因为如果父母乐于改正,我的自我感觉会好一些。</t>
-  </si>
-  <si>
     <t>当父母告诉我应当怎样生活时,我感到愤怒。</t>
   </si>
   <si>
     <t>当父母告诉我应当怎样思考,应当有什么样的感情或行为时,我感到愤怒。</t>
   </si>
   <si>
+    <t>其实没有必要和父母一直做斗争，做他们的
+对立面，遵从自己的内心，做自己就行。放过自己吧。</t>
+  </si>
+  <si>
     <t>当父母教训我该做什么,不该做什么时,我感到愤怒。</t>
   </si>
   <si>
@@ -208,6 +209,9 @@
   </si>
   <si>
     <t>当父母拒绝我时,我感到愤怒。</t>
+  </si>
+  <si>
+    <t>28/32[很严重哈]</t>
   </si>
   <si>
     <t>顺从型行为:</t>
@@ -271,8 +275,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -299,21 +303,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,6 +348,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -337,32 +417,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,73 +439,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -457,37 +461,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,43 +605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,19 +617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,67 +635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,26 +649,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,31 +713,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,17 +738,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,157 +751,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
@@ -1362,7 +1369,7 @@
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1381,7 +1388,7 @@
       <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1421,17 +1428,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="71.375" customWidth="true"/>
-    <col min="3" max="3" width="53.6333333333333" customWidth="true"/>
-    <col min="4" max="4" width="31.25" customWidth="true"/>
+    <col min="2" max="2" width="48.2916666666667" customWidth="true"/>
+    <col min="3" max="3" width="67.7" customWidth="true"/>
+    <col min="4" max="4" width="44.8833333333333" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="true" spans="1:4">
@@ -1571,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1661,9 +1669,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1674,42 +1688,92 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="45" spans="1:4">
+      <c r="A27" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1725,7 +1789,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1736,7 +1800,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1744,87 +1808,87 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/01读书笔记/《中毒的父母》或者中毒的爱/观念、情感、行为关系表-2021-10-31.xlsx
+++ b/01读书笔记/《中毒的父母》或者中毒的爱/观念、情感、行为关系表-2021-10-31.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19650" windowHeight="7920" activeTab="1"/>
+    <workbookView windowWidth="19650" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="观念表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
   <si>
     <t>添加行说明：可以添加其他行</t>
   </si>
@@ -186,16 +186,15 @@
     <t>当父母试图控制我时,我感到愤怒。</t>
   </si>
   <si>
+    <t>因为如果父母乐于改正,我的自我感觉会好一些。</t>
+  </si>
+  <si>
     <t>当父母告诉我应当怎样生活时,我感到愤怒。</t>
   </si>
   <si>
     <t>当父母告诉我应当怎样思考,应当有什么样的感情或行为时,我感到愤怒。</t>
   </si>
   <si>
-    <t>其实没有必要和父母一直做斗争，做他们的
-对立面，遵从自己的内心，做自己就行。放过自己吧。</t>
-  </si>
-  <si>
     <t>当父母教训我该做什么,不该做什么时,我感到愤怒。</t>
   </si>
   <si>
@@ -209,9 +208,6 @@
   </si>
   <si>
     <t>当父母拒绝我时,我感到愤怒。</t>
-  </si>
-  <si>
-    <t>28/32[很严重哈]</t>
   </si>
   <si>
     <t>顺从型行为:</t>
@@ -275,8 +271,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -303,7 +299,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,9 +366,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,112 +441,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -461,13 +457,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +559,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,151 +625,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,47 +645,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,16 +688,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,11 +728,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,160 +747,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
@@ -1369,7 +1362,7 @@
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1388,7 +1381,7 @@
       <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1428,18 +1421,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="71.375" customWidth="true"/>
-    <col min="2" max="2" width="48.2916666666667" customWidth="true"/>
-    <col min="3" max="3" width="67.7" customWidth="true"/>
-    <col min="4" max="4" width="44.8833333333333" customWidth="true"/>
+    <col min="3" max="3" width="53.6333333333333" customWidth="true"/>
+    <col min="4" max="4" width="31.25" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="true" spans="1:4">
@@ -1579,7 +1571,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1669,15 +1661,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1688,92 +1674,42 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" ht="45" spans="1:4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>59</v>
       </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>63</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1725,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1800,7 +1736,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1808,87 +1744,87 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/01读书笔记/《中毒的父母》或者中毒的爱/观念、情感、行为关系表-2021-10-31.xlsx
+++ b/01读书笔记/《中毒的父母》或者中毒的爱/观念、情感、行为关系表-2021-10-31.xlsx
@@ -4,19 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19650" windowHeight="7920" activeTab="1"/>
+    <workbookView windowWidth="19650" windowHeight="7920" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="观念表" sheetId="1" r:id="rId1"/>
     <sheet name="情感表" sheetId="2" r:id="rId2"/>
     <sheet name="行为表" sheetId="3" r:id="rId3"/>
+    <sheet name="不该为......负责任" sheetId="4" r:id="rId4"/>
+    <sheet name="怒气和悲伤" sheetId="5" r:id="rId5"/>
+    <sheet name="应当为......负责" sheetId="6" r:id="rId6"/>
+    <sheet name="对峙" sheetId="8" r:id="rId7"/>
+    <sheet name="其他" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="140">
   <si>
     <t>添加行说明：可以添加其他行</t>
   </si>
@@ -208,6 +213,9 @@
     <t>当父母想让我照顾他们时,我感到愤怒。</t>
   </si>
   <si>
+    <t>没有必要每件事都逆着父母走，对自己有害的，可以考虑接受；对自己有害的，果断拒绝。</t>
+  </si>
+  <si>
     <t>当父母拒绝我时,我感到愤怒。</t>
   </si>
   <si>
@@ -266,6 +274,189 @@
   </si>
   <si>
     <t>我常常大发脾气,要把父母从自己的生活中抹去。</t>
+  </si>
+  <si>
+    <t>他们忽视你的存在或不理睬你的做法。</t>
+  </si>
+  <si>
+    <t>为帮助你卸去责任,我为患者错误地将责任归咎于自己的
+许多事情列了一张表。为了能高效地使用这张表,请为自己安
+排一段安静的,可以独处的时间,同内心深处的那个孩子进行
+一次谈话。为了使你能身临其境地感觉到自己当时是多么弱小
+无助,你可以找一张小时的照片,大声地对那孩子说:“你当时
+不该为......负责任。”然后再用表上同你个人生活实际相符的每
+一项去完成这个句子。</t>
+  </si>
+  <si>
+    <t>他们让你觉得自己没人疼爱,也不讨人喜欢的做法。</t>
+  </si>
+  <si>
+    <t>他们狠心或不体谅人的嘲笑。</t>
+  </si>
+  <si>
+    <t>他们骂你的话。</t>
+  </si>
+  <si>
+    <t>他们的不幸。</t>
+  </si>
+  <si>
+    <t>他们的难处。</t>
+  </si>
+  <si>
+    <t>他们对自己的难处无所作为的选择。</t>
+  </si>
+  <si>
+    <t>他们的酗酒。</t>
+  </si>
+  <si>
+    <t>他们酗酒时干的事。</t>
+  </si>
+  <si>
+    <t>他们对你的殴打。</t>
+  </si>
+  <si>
+    <t>他们对你的骚扰。</t>
+  </si>
+  <si>
+    <t>这一练习的第二部分涉及到将责任归咎于应承担的一方
+归咎于你的父母。为了使这一点显得鲜明突出,请重复表上的
+每一项,但要这样开头:“我父母应当为......负责。”</t>
+  </si>
+  <si>
+    <t>消除怒气：</t>
+  </si>
+  <si>
+    <t>和自己对话</t>
+  </si>
+  <si>
+    <t>和父母对话</t>
+  </si>
+  <si>
+    <t>消除悲伤：</t>
+  </si>
+  <si>
+    <t>葬礼”练习</t>
+  </si>
+  <si>
+    <t>安葬我家是个美好的家庭的幻想,安葬我
+对于父母的希望和期待,安葬儿时我原本可以改变他们的幻想。我知道我永远不会有自己原本想要的那种
+父母。我为这一损失感到悲痛,但我接受这一现实。
+愿这些幻想安息吧。</t>
+  </si>
+  <si>
+    <t>关爱合同</t>
+  </si>
+  <si>
+    <t>列举出你每星期能做到的10
+件事帮助你度过内心的悲伤时
+期,把这视为你与自己签订的“关爱合同”。</t>
+  </si>
+  <si>
+    <t>成为一个独立于父母的个人。</t>
+  </si>
+  <si>
+    <t>如实地看待自己与父母之间的关系。</t>
+  </si>
+  <si>
+    <t>正视童年的现实。</t>
+  </si>
+  <si>
+    <t>有勇气承认童年发生的事情与成年以后的生活之间的关系。</t>
+  </si>
+  <si>
+    <t>鼓起勇气袒露自己对父母的真正感觉。</t>
+  </si>
+  <si>
+    <t>不管他们健在还是故去了,抵制并减少父母对自己的摆布和控制。</t>
+  </si>
+  <si>
+    <t>改变自己的行为,假如这行为是残忍的、伤人心的、苛刻的或摆布别人的话。</t>
+  </si>
+  <si>
+    <t>寻找足够的力量帮助自己治愈心中的那个孩子。</t>
+  </si>
+  <si>
+    <t>重新获得成年人的力量和信心。</t>
+  </si>
+  <si>
+    <t>大声说“作为一个成年人 ,在同父母的关
+系中,我应当为......负责”,然后再在这句话的后面接着念出下
+面 表中 的 每 一项。</t>
+  </si>
+  <si>
+    <t>同父母对峙的目的不是为了:</t>
+  </si>
+  <si>
+    <t>报复。</t>
+  </si>
+  <si>
+    <t>惩罚他们。</t>
+  </si>
+  <si>
+    <t>让他们收敛。</t>
+  </si>
+  <si>
+    <t>向他们泄愤。</t>
+  </si>
+  <si>
+    <t>从他们身上讨回某种具有积极意义的东西。</t>
+  </si>
+  <si>
+    <t>同父母对峙的目的是为了:</t>
+  </si>
+  <si>
+    <t>直面他们。</t>
+  </si>
+  <si>
+    <t>一劳永逸地克服直面他们时的恐惧。</t>
+  </si>
+  <si>
+    <t>对父母说实话。</t>
+  </si>
+  <si>
+    <t>为你今后与他们的关系定位。</t>
+  </si>
+  <si>
+    <t>写信/面对面</t>
+  </si>
+  <si>
+    <t>对峙后</t>
+  </si>
+  <si>
+    <t>我相信你有这种看法。</t>
+  </si>
+  <si>
+    <t>骂人喊叫无助于我们之间的事情。</t>
+  </si>
+  <si>
+    <t>我不愿接受你给我扣的这些帽子。</t>
+  </si>
+  <si>
+    <t>这件事能很好地说明为什么我们要见上这一面。</t>
+  </si>
+  <si>
+    <t>你这样说话不好。</t>
+  </si>
+  <si>
+    <t>你答应听我说完的。</t>
+  </si>
+  <si>
+    <t>这事我们以后再谈,等到你冷静点儿再谈。</t>
+  </si>
+  <si>
+    <t>试行分离 。同父母中断一段时间的来往,至少 个月不接触。这就意味着不见面，不打电话，不写信 。我把这称为“解毒”过程</t>
+  </si>
+  <si>
+    <t>我发现吴佩玲不回我的手机短信，我很生气，愤怒。</t>
+  </si>
+  <si>
+    <t>我发现我一想起我叔干的“坏事”，心里很生气。</t>
+  </si>
+  <si>
+    <t>我发现我面对我二哥和吴佩玲住在一起，心里很不舒服。</t>
+  </si>
+  <si>
+    <t>我发现我只要写代码不顺利，或者做其他时期不顺利，就会对我的父母，叔叔很愤怒，很生气。</t>
   </si>
 </sst>
 </file>
@@ -273,10 +464,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -303,9 +494,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,8 +523,91 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,97 +623,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -438,13 +636,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -461,37 +652,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,91 +814,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,43 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,6 +837,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -680,39 +900,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -729,20 +916,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,163 +942,172 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
@@ -1263,7 +1463,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1274,8 +1474,8 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="true" spans="1:4">
-      <c r="A1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="6"/>
+      <c r="C1" s="6"/>
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -1369,7 +1569,7 @@
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1388,7 +1588,7 @@
       <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1430,21 +1630,21 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScale="133" zoomScaleNormal="133" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="71.375" customWidth="true"/>
-    <col min="2" max="2" width="48.2916666666667" customWidth="true"/>
+    <col min="2" max="2" width="22.3833333333333" customWidth="true"/>
     <col min="3" max="3" width="67.7" customWidth="true"/>
     <col min="4" max="4" width="44.8833333333333" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="true" spans="1:4">
-      <c r="A1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="6"/>
+      <c r="C1" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
@@ -1462,14 +1662,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="30" spans="1:3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1518,7 +1718,7 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1735,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1749,7 +1949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" ht="30" spans="1:4">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1759,10 +1959,13 @@
       <c r="C31" t="s">
         <v>18</v>
       </c>
+      <c r="D31" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -1773,7 +1976,7 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1786,109 +1989,133 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="75.6833333333333" customWidth="true"/>
-    <col min="2" max="2" width="29.6583333333333" customWidth="true"/>
+    <col min="1" max="1" width="70.725" customWidth="true"/>
+    <col min="3" max="3" width="29.6583333333333" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="A13" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1896,4 +2123,520 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="91.625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:H10"/>
+    <mergeCell ref="B11:H16"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="true"/>
+    <col min="2" max="2" width="28" customWidth="true"/>
+    <col min="3" max="3" width="57.75" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" ht="75" spans="2:3">
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" ht="45" spans="2:3">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="72.875" customWidth="true"/>
+    <col min="2" max="2" width="53.375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:B14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="92.25" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="111.75" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/01读书笔记/《中毒的父母》或者中毒的爱/观念、情感、行为关系表-2021-10-31.xlsx
+++ b/01读书笔记/《中毒的父母》或者中毒的爱/观念、情感、行为关系表-2021-10-31.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19650" windowHeight="7920" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="11070" windowHeight="7590" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="观念表" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
     <t>这事我们以后再谈,等到你冷静点儿再谈。</t>
   </si>
   <si>
-    <t>试行分离 。同父母中断一段时间的来往,至少 个月不接触。这就意味着不见面，不打电话，不写信 。我把这称为“解毒”过程</t>
+    <t>试行分离 。同父母中断一段时间的来往,至少三个月不接触。这就意味着不见面，不打电话，不写信 。我把这称为“解毒”过程</t>
   </si>
   <si>
     <t>我发现吴佩玲不回我的手机短信，我很生气，愤怒。</t>
@@ -453,10 +453,10 @@
     <t>我发现我一想起我叔干的“坏事”，心里很生气。</t>
   </si>
   <si>
-    <t>我发现我面对我二哥和吴佩玲住在一起，心里很不舒服。</t>
-  </si>
-  <si>
-    <t>我发现我只要写代码不顺利，或者做其他时期不顺利，就会对我的父母，叔叔很愤怒，很生气。</t>
+    <t>我发现我想起我二哥和吴佩玲住在一起的事实，心里很不舒服。</t>
+  </si>
+  <si>
+    <t>我发现我只要写代码不顺利，或者做其他事情不顺利，就会对我的父母，叔叔很愤怒，很生气。</t>
   </si>
 </sst>
 </file>
@@ -464,10 +464,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -494,13 +494,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -523,10 +516,34 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -548,23 +565,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,14 +586,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,32 +608,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -636,6 +621,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -652,13 +652,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,7 +808,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,151 +820,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,15 +837,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -860,26 +851,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,6 +874,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -910,15 +899,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,153 +917,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1992,7 +1992,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -2130,8 +2130,8 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2395,8 +2395,8 @@
   <sheetPr/>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2481,8 +2481,8 @@
   <sheetPr/>
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2607,7 +2607,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>

--- a/01读书笔记/《中毒的父母》或者中毒的爱/观念、情感、行为关系表-2021-10-31.xlsx
+++ b/01读书笔记/《中毒的父母》或者中毒的爱/观念、情感、行为关系表-2021-10-31.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11070" windowHeight="7590" firstSheet="4" activeTab="5"/>
+    <workbookView windowWidth="19650" windowHeight="7995" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="观念表" sheetId="1" r:id="rId1"/>
@@ -464,10 +464,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -500,6 +500,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -515,100 +530,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,6 +547,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -631,11 +623,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -652,181 +652,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,8 +843,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,6 +854,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,21 +913,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -903,21 +927,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -928,162 +937,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,25 +1091,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1291,7 +1291,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1312,9 +1312,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="true"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1335,7 +1335,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="false"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1405,7 +1405,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1431,7 +1431,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1468,12 +1468,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="82.5" customWidth="true"/>
-    <col min="3" max="3" width="35.5666666666667" customWidth="true"/>
-    <col min="4" max="4" width="35.225" customWidth="true"/>
+    <col min="1" max="1" width="82.5" customWidth="1"/>
+    <col min="3" max="3" width="35.5666666666667" customWidth="1"/>
+    <col min="4" max="4" width="35.225" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="true" spans="1:4">
+    <row r="1" customFormat="1" spans="1:4">
       <c r="A1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" t="s">
@@ -1533,7 +1533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="14" customHeight="true" spans="1:2">
+    <row r="9" ht="14" customHeight="1" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1636,13 +1636,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="71.375" customWidth="true"/>
-    <col min="2" max="2" width="22.3833333333333" customWidth="true"/>
-    <col min="3" max="3" width="67.7" customWidth="true"/>
-    <col min="4" max="4" width="44.8833333333333" customWidth="true"/>
+    <col min="1" max="1" width="71.375" customWidth="1"/>
+    <col min="2" max="2" width="22.3833333333333" customWidth="1"/>
+    <col min="3" max="3" width="67.7" customWidth="1"/>
+    <col min="4" max="4" width="44.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="true" spans="1:4">
+    <row r="1" customFormat="1" spans="1:4">
       <c r="A1" s="6"/>
       <c r="C1" s="6" t="s">
         <v>21</v>
@@ -1836,7 +1836,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" ht="14" customHeight="true" spans="1:3">
+    <row r="21" ht="14" customHeight="1" spans="1:3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1997,8 +1997,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="70.725" customWidth="true"/>
-    <col min="3" max="3" width="29.6583333333333" customWidth="true"/>
+    <col min="1" max="1" width="70.725" customWidth="1"/>
+    <col min="3" max="3" width="29.6583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2136,7 +2136,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="91.625" customWidth="true"/>
+    <col min="1" max="1" width="91.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2341,9 +2341,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="true"/>
-    <col min="2" max="2" width="28" customWidth="true"/>
-    <col min="3" max="3" width="57.75" customWidth="true"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="57.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2395,14 +2395,14 @@
   <sheetPr/>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="72.875" customWidth="true"/>
-    <col min="2" max="2" width="53.375" customWidth="true"/>
+    <col min="1" max="1" width="72.875" customWidth="1"/>
+    <col min="2" max="2" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2487,7 +2487,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="92.25" customWidth="true"/>
+    <col min="1" max="1" width="92.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2606,13 +2606,13 @@
   <sheetPr/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="111.75" customWidth="true"/>
+    <col min="1" max="1" width="111.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
